--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H2">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>0.4084500886431556</v>
+        <v>2.406608526234</v>
       </c>
       <c r="R2">
-        <v>0.4084500886431556</v>
+        <v>21.659476736106</v>
       </c>
       <c r="S2">
-        <v>3.425562435553957E-05</v>
+        <v>0.0001218070538832857</v>
       </c>
       <c r="T2">
-        <v>3.425562435553957E-05</v>
+        <v>0.0001218070538832857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H3">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>34.16477209362458</v>
+        <v>158.1696743843859</v>
       </c>
       <c r="R3">
-        <v>34.16477209362458</v>
+        <v>1423.527069459473</v>
       </c>
       <c r="S3">
-        <v>0.002865308715979481</v>
+        <v>0.008005532200365584</v>
       </c>
       <c r="T3">
-        <v>0.002865308715979481</v>
+        <v>0.008005532200365581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H4">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.1260068979323919</v>
+        <v>0.8028516003774444</v>
       </c>
       <c r="R4">
-        <v>0.1260068979323919</v>
+        <v>7.225664403396999</v>
       </c>
       <c r="S4">
-        <v>1.056786393685892E-05</v>
+        <v>4.063518726931864E-05</v>
       </c>
       <c r="T4">
-        <v>1.056786393685892E-05</v>
+        <v>4.063518726931863E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H5">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.3129602885346933</v>
+        <v>1.509372353368</v>
       </c>
       <c r="R5">
-        <v>0.3129602885346933</v>
+        <v>13.584351180312</v>
       </c>
       <c r="S5">
-        <v>2.624714837952179E-05</v>
+        <v>7.639472626000385E-05</v>
       </c>
       <c r="T5">
-        <v>2.624714837952179E-05</v>
+        <v>7.639472626000382E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H6">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>1.855261889148812</v>
+        <v>8.749338145472221</v>
       </c>
       <c r="R6">
-        <v>1.855261889148812</v>
+        <v>78.74404330924999</v>
       </c>
       <c r="S6">
-        <v>0.000155595888268625</v>
+        <v>0.0004428352560506962</v>
       </c>
       <c r="T6">
-        <v>0.000155595888268625</v>
+        <v>0.000442835256050696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H7">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>11.98518541723092</v>
+        <v>68.15967107127078</v>
       </c>
       <c r="R7">
-        <v>11.98518541723092</v>
+        <v>613.437039641437</v>
       </c>
       <c r="S7">
-        <v>0.001005165676051159</v>
+        <v>0.003449804418268755</v>
       </c>
       <c r="T7">
-        <v>0.001005165676051159</v>
+        <v>0.003449804418268754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H8">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>83.28728388515135</v>
+        <v>107.154329497134</v>
       </c>
       <c r="R8">
-        <v>83.28728388515135</v>
+        <v>964.3889654742061</v>
       </c>
       <c r="S8">
-        <v>0.006985083342350593</v>
+        <v>0.005423463369553302</v>
       </c>
       <c r="T8">
-        <v>0.006985083342350593</v>
+        <v>0.0054234633695533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H9">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>6966.557607284999</v>
+        <v>7042.510329655061</v>
       </c>
       <c r="R9">
-        <v>6966.557607284999</v>
+        <v>63382.59296689554</v>
       </c>
       <c r="S9">
-        <v>0.5842666878568701</v>
+        <v>0.3564466035281061</v>
       </c>
       <c r="T9">
-        <v>0.5842666878568701</v>
+        <v>0.3564466035281059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H10">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>25.69413637403131</v>
+        <v>35.74699581853857</v>
       </c>
       <c r="R10">
-        <v>25.69413637403131</v>
+        <v>321.722962366847</v>
       </c>
       <c r="S10">
-        <v>0.002154898990700883</v>
+        <v>0.001809283146124341</v>
       </c>
       <c r="T10">
-        <v>0.002154898990700883</v>
+        <v>0.001809283146124341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H11">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>63.8159058370048</v>
+        <v>67.20485726016801</v>
       </c>
       <c r="R11">
-        <v>63.8159058370048</v>
+        <v>604.8437153415121</v>
       </c>
       <c r="S11">
-        <v>0.005352070568824819</v>
+        <v>0.003401477880707826</v>
       </c>
       <c r="T11">
-        <v>0.005352070568824819</v>
+        <v>0.003401477880707825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H12">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>378.3074797612206</v>
+        <v>389.5645894635278</v>
       </c>
       <c r="R12">
-        <v>378.3074797612206</v>
+        <v>3506.08130517175</v>
       </c>
       <c r="S12">
-        <v>0.03172764378786338</v>
+        <v>0.01971725539178538</v>
       </c>
       <c r="T12">
-        <v>0.03172764378786338</v>
+        <v>0.01971725539178538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H13">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>2443.905799058798</v>
+        <v>3034.811758028766</v>
       </c>
       <c r="R13">
-        <v>2443.905799058798</v>
+        <v>27313.30582225889</v>
       </c>
       <c r="S13">
-        <v>0.2049638899357007</v>
+        <v>0.1536026633772077</v>
       </c>
       <c r="T13">
-        <v>0.2049638899357007</v>
+        <v>0.1536026633772076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H14">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>2.467344958508207</v>
+        <v>64.05762221271002</v>
       </c>
       <c r="R14">
-        <v>2.467344958508207</v>
+        <v>576.5185999143901</v>
       </c>
       <c r="S14">
-        <v>0.0002069296699994921</v>
+        <v>0.003242185073078253</v>
       </c>
       <c r="T14">
-        <v>0.0002069296699994921</v>
+        <v>0.003242185073078252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H15">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>206.380854179303</v>
+        <v>4210.06289006939</v>
       </c>
       <c r="R15">
-        <v>206.380854179303</v>
+        <v>37890.5660106245</v>
       </c>
       <c r="S15">
-        <v>0.01730861422610212</v>
+        <v>0.2130863211496997</v>
       </c>
       <c r="T15">
-        <v>0.01730861422610212</v>
+        <v>0.2130863211496997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H16">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>0.7611761950732905</v>
+        <v>21.36980898606167</v>
       </c>
       <c r="R16">
-        <v>0.7611761950732905</v>
+        <v>192.328280874555</v>
       </c>
       <c r="S16">
-        <v>6.383782628968829E-05</v>
+        <v>0.001081602365430846</v>
       </c>
       <c r="T16">
-        <v>6.383782628968829E-05</v>
+        <v>0.001081602365430846</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H17">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>1.890514928505668</v>
+        <v>40.17554285892001</v>
       </c>
       <c r="R17">
-        <v>1.890514928505668</v>
+        <v>361.5798857302801</v>
       </c>
       <c r="S17">
-        <v>0.0001585524670702385</v>
+        <v>0.002033427730543535</v>
       </c>
       <c r="T17">
-        <v>0.0001585524670702385</v>
+        <v>0.002033427730543534</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H18">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>11.20717364540212</v>
+        <v>232.8844892820834</v>
       </c>
       <c r="R18">
-        <v>11.20717364540212</v>
+        <v>2095.96040353875</v>
       </c>
       <c r="S18">
-        <v>0.0009399158946433767</v>
+        <v>0.01178711586256801</v>
       </c>
       <c r="T18">
-        <v>0.0009399158946433767</v>
+        <v>0.01178711586256801</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H19">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>72.39951131905899</v>
+        <v>1814.232107977462</v>
       </c>
       <c r="R19">
-        <v>72.39951131905899</v>
+        <v>16328.08897179716</v>
       </c>
       <c r="S19">
-        <v>0.006071954768106472</v>
+        <v>0.09182476739538932</v>
       </c>
       <c r="T19">
-        <v>0.006071954768106472</v>
+        <v>0.09182476739538928</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H20">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>2.052281903839569</v>
+        <v>5.840258402604001</v>
       </c>
       <c r="R20">
-        <v>2.052281903839569</v>
+        <v>52.56232562343601</v>
       </c>
       <c r="S20">
-        <v>0.0001721194337431512</v>
+        <v>0.0002955963390736895</v>
       </c>
       <c r="T20">
-        <v>0.0001721194337431512</v>
+        <v>0.0002955963390736894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H21">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>171.6629411183843</v>
+        <v>383.8396481151377</v>
       </c>
       <c r="R21">
-        <v>171.6629411183843</v>
+        <v>3454.556833036239</v>
       </c>
       <c r="S21">
-        <v>0.01439691504597992</v>
+        <v>0.01942749566073629</v>
       </c>
       <c r="T21">
-        <v>0.01439691504597992</v>
+        <v>0.01942749566073629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H22">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>0.6331291963839826</v>
+        <v>1.948327180775778</v>
       </c>
       <c r="R22">
-        <v>0.6331291963839826</v>
+        <v>17.534944626982</v>
       </c>
       <c r="S22">
-        <v>5.309886451953346E-05</v>
+        <v>9.861179801535788E-05</v>
       </c>
       <c r="T22">
-        <v>5.309886451953346E-05</v>
+        <v>9.861179801535785E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H23">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>1.572487691002302</v>
+        <v>3.662882630608001</v>
       </c>
       <c r="R23">
-        <v>1.572487691002302</v>
+        <v>32.965943675472</v>
       </c>
       <c r="S23">
-        <v>0.0001318803671352497</v>
+        <v>0.0001853915736984464</v>
       </c>
       <c r="T23">
-        <v>0.0001318803671352497</v>
+        <v>0.0001853915736984463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H24">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>9.321874343647844</v>
+        <v>21.23253327838889</v>
       </c>
       <c r="R24">
-        <v>9.321874343647844</v>
+        <v>191.0927995055</v>
       </c>
       <c r="S24">
-        <v>0.0007818008483394499</v>
+        <v>0.0010746543515187</v>
       </c>
       <c r="T24">
-        <v>0.0007818008483394499</v>
+        <v>0.001074654351518699</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H25">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>60.22028108172155</v>
+        <v>165.4070811074691</v>
       </c>
       <c r="R25">
-        <v>60.22028108172155</v>
+        <v>1488.663729967222</v>
       </c>
       <c r="S25">
-        <v>0.005050515068250377</v>
+        <v>0.008371843206532167</v>
       </c>
       <c r="T25">
-        <v>0.005050515068250377</v>
+        <v>0.008371843206532165</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H26">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>3.810735420364522</v>
+        <v>6.119834030676001</v>
       </c>
       <c r="R26">
-        <v>3.810735420364522</v>
+        <v>55.07850627608401</v>
       </c>
       <c r="S26">
-        <v>0.0003195962608601669</v>
+        <v>0.0003097466602504825</v>
       </c>
       <c r="T26">
-        <v>0.0003195962608601669</v>
+        <v>0.0003097466602504824</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H27">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>318.7486323686423</v>
+        <v>402.2142136399914</v>
       </c>
       <c r="R27">
-        <v>318.7486323686423</v>
+        <v>3619.927922759923</v>
       </c>
       <c r="S27">
-        <v>0.02673260140678185</v>
+        <v>0.02035749805562942</v>
       </c>
       <c r="T27">
-        <v>0.02673260140678185</v>
+        <v>0.02035749805562941</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H28">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>1.175612302488037</v>
+        <v>2.041594423028667</v>
       </c>
       <c r="R28">
-        <v>1.175612302488037</v>
+        <v>18.374349807258</v>
       </c>
       <c r="S28">
-        <v>9.859548214461132E-05</v>
+        <v>0.0001033323862950067</v>
       </c>
       <c r="T28">
-        <v>9.859548214461132E-05</v>
+        <v>0.0001033323862950066</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H29">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>2.91983987725018</v>
+        <v>3.838226363952001</v>
       </c>
       <c r="R29">
-        <v>2.91983987725018</v>
+        <v>34.544037275568</v>
       </c>
       <c r="S29">
-        <v>0.00024487921730087</v>
+        <v>0.0001942663463682464</v>
       </c>
       <c r="T29">
-        <v>0.00024487921730087</v>
+        <v>0.0001942663463682463</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H30">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>17.30912146088048</v>
+        <v>22.24894358383333</v>
       </c>
       <c r="R30">
-        <v>17.30912146088048</v>
+        <v>200.2404922545</v>
       </c>
       <c r="S30">
-        <v>0.001451670055105191</v>
+        <v>0.001126098507680041</v>
       </c>
       <c r="T30">
-        <v>0.001451670055105191</v>
+        <v>0.001126098507680041</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H31">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>111.8187310003992</v>
+        <v>173.3251877048687</v>
       </c>
       <c r="R31">
-        <v>111.8187310003992</v>
+        <v>1559.926689343818</v>
       </c>
       <c r="S31">
-        <v>0.009377940050857148</v>
+        <v>0.008772606864787931</v>
       </c>
       <c r="T31">
-        <v>0.009377940050857148</v>
+        <v>0.008772606864787926</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H32">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>7.665395181162041</v>
+        <v>12.708137555808</v>
       </c>
       <c r="R32">
-        <v>7.665395181162041</v>
+        <v>114.373238002272</v>
       </c>
       <c r="S32">
-        <v>0.0006428763395178422</v>
+        <v>0.0006432042349815899</v>
       </c>
       <c r="T32">
-        <v>0.0006428763395178422</v>
+        <v>0.0006432042349815898</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H33">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>641.1713123675379</v>
+        <v>835.2176755475753</v>
       </c>
       <c r="R33">
-        <v>641.1713123675379</v>
+        <v>7516.959079928177</v>
       </c>
       <c r="S33">
-        <v>0.0537733354324215</v>
+        <v>0.04227334994482778</v>
       </c>
       <c r="T33">
-        <v>0.0537733354324215</v>
+        <v>0.04227334994482777</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H34">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>2.364775268901927</v>
+        <v>4.239471631251555</v>
       </c>
       <c r="R34">
-        <v>2.364775268901927</v>
+        <v>38.155244681264</v>
       </c>
       <c r="S34">
-        <v>0.0001983274224908947</v>
+        <v>0.0002145748025885241</v>
       </c>
       <c r="T34">
-        <v>0.0001983274224908947</v>
+        <v>0.000214574802588524</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H35">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>5.873335211159145</v>
+        <v>7.970266572416</v>
       </c>
       <c r="R35">
-        <v>5.873335211159145</v>
+        <v>71.732399151744</v>
       </c>
       <c r="S35">
-        <v>0.0004925810283846116</v>
+        <v>0.0004034036609060156</v>
       </c>
       <c r="T35">
-        <v>0.0004925810283846116</v>
+        <v>0.0004034036609060156</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H36">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>34.8177560497469</v>
+        <v>46.20102998177777</v>
       </c>
       <c r="R36">
-        <v>34.8177560497469</v>
+        <v>415.809269836</v>
       </c>
       <c r="S36">
-        <v>0.002920072746476882</v>
+        <v>0.002338399156783557</v>
       </c>
       <c r="T36">
-        <v>0.002920072746476882</v>
+        <v>0.002338399156783556</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H37">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>224.926337628584</v>
+        <v>359.9183108886382</v>
       </c>
       <c r="R37">
-        <v>224.926337628584</v>
+        <v>3239.264797997744</v>
       </c>
       <c r="S37">
-        <v>0.01886397467819756</v>
+        <v>0.0182167513370352</v>
       </c>
       <c r="T37">
-        <v>0.01886397467819756</v>
+        <v>0.0182167513370352</v>
       </c>
     </row>
   </sheetData>
